--- a/Project Board/Research Survey on Customer Loyalty Programs (Responses).xlsx
+++ b/Project Board/Research Survey on Customer Loyalty Programs (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="250">
   <si>
     <t>Timestamp</t>
   </si>
@@ -711,6 +711,60 @@
   </si>
   <si>
     <t>Implementing a loyalty program using blockchain technology could offer increased transparency, security, and personalized rewards, which could incentivize customers to continue their transactions with the company.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghavi </t>
+  </si>
+  <si>
+    <t>raghavi_c@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected to invest very high to avail loyalty program </t>
+  </si>
+  <si>
+    <t>The rewarding scheme should be smooth irrespective of background technology used</t>
+  </si>
+  <si>
+    <t>Sreedeva Krupananda B Reddy</t>
+  </si>
+  <si>
+    <t>20bcs128@iiitdwd.ac.in</t>
+  </si>
+  <si>
+    <t>Transparency, Security and increased Flexibility</t>
+  </si>
+  <si>
+    <t>Aalekh Prasad</t>
+  </si>
+  <si>
+    <t>20bec001@iiitdwd.ac.in</t>
+  </si>
+  <si>
+    <t>discount on next transaction</t>
+  </si>
+  <si>
+    <t>JAGADISH</t>
+  </si>
+  <si>
+    <t>20CS032@iiitdwd.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meeting the limitations </t>
+  </si>
+  <si>
+    <t>Faster Redemption and Lower Fees</t>
+  </si>
+  <si>
+    <t>Anuj</t>
+  </si>
+  <si>
+    <t>19bcs012@iiitdwd.ac.in</t>
+  </si>
+  <si>
+    <t>wallet issues as in the reward can be used for particular wallet or type of payment method.</t>
+  </si>
+  <si>
+    <t>product authenticity.</t>
   </si>
 </sst>
 </file>
@@ -4966,6 +5020,367 @@
         <v>33</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>45059.87175856481</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N56" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T56" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>45061.50101116898</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N57" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T57" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>45064.33640958334</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N58" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T58" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>45064.99178840278</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K59" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N59" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T59" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>45092.84549443287</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K60" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T60" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
